--- a/500all/speech_level/speeches_CHRG-114hhrg98311.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98311.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. The subcommittee will come to order. We meet today pursuant to notice to mark up three bipartisan measures. As your offices have been notified, it is the intent of the Chair to consider en bloc the following items, which were previously provided to members and are in your folders: First, House Resolution 339, expressing the sense of the House of Representatives regarding the 25th anniversary of democracy in Mongolia; the Salmon amendment 104 in the nature of a substitute to H. Res. 339; and the Salmon second degree amendment 105 to amendment 104.    We also have House Resolution 343, expressing concern regarding persistent and credible reports of systematic state-sanctioned organ harvesting from non-consenting prisoners of conscience in the People's Republic of China, including from large numbers of Falun Gong practitioners and members of other religious and ethnic minority groups. With that, we will be voting on the Connolly amendment No. 66 in the nature of a substitute to H. Res. 343.    And, finally, House Resolution 374, recognizing the 50th anniversary of the Singaporean independence and reaffirming Singapore's close partnership with the United States. And, with that, Salmon amendment 103 in the nature of a substitute to H. Res. 374.    And, without objection, these items are considered as read and will be considered en bloc.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you, Mr. Chairman. Thank you for the bipartisan approach you are taking.    There are two, I think, noncontroversial--completely noncontroversial--bills. The first deals with Mongolia. I will, of course, support the bill and your amendment to it as well. Democracy has been thriving in Mongolia for 25 years. This bill recognizes the 25th anniversary of that democracy, and recommends the U.S. Government expand academic, cultural, and other people-to-people partnerships between Mongolia and the United States. It advocates and urges Mongolia to further develop democratic institutions, promote transparency, accountability, and community engagement. This is a country with a truly amazing history, and I join you in supporting the bill.    The other noncontroversial bill deals with Singapore. I commend Mr. Heck for being here and for offering this resolution. Singapore was established in its independence 50 years ago. The country's history began in a unique way, being expelled from Malaysia in August 1965. After that separation, the fledgling nation had to become self-sufficient and faced problems, including mass unemployment, housing shortages, lack of land, and a lack of virtually all natural resources. Not only does this resolution commemorate the 50th anniversary of Singapore's independence, but it highlights the strong bilateral cooperation between the United States and Singapore.    And I might add that Singapore is one of the very few countries in Asia where we have a trade surplus, and I look forward to looking at that trade relationship and seeing if we can replicate it with others in Asia.    Turning to the third resolution dealing with the Falun Gong, China's human rights record is abysmal. Its treatment of religion and those who wish to practice religion is abysmal. It appears that Beijing simply fears anything it does not control. If they were providing open government in which all could participate, they would have far less to fear. We should specifically condemn China's treatment of Falun Gong members, who have faced perhaps more discrimination and more retribution and more mistreatment than any other religion in China; though, there are many others that could argue that they, too, are subject to that abuse.    But there are parts of this resolution that do give me pause. In particular, the second full ``whereas'' clause on page 3 of the amendment in the nature of a substitute, which says: ``Whereas researcher and journalist Ethan Gutmann estimates that approximately 65,000 Falun Gong adherents''--and this is a strange phrase--``may have been''--and then it goes on to say--``killed for their organs from 2000 to 2008.'' I can't find anyone in the human rights community, any of the established human rights organizations, to lend their credibility to this as even a reasonable estimate.    It also gives me pause to say that a researcher determines that a certain number may have been killed. The chairman points out that he believes that people's organs were harvested when they were alive. This clause talks about them being killed. I think this resolution would be preferable if it simply deleted this ``whereas'' clause, or--and I may offer this as an amendment in the full committee; I will not offer an amendment here--if we said: Okay, it is indeed true that Ethan Gutmann has this estimate, but others concerned with human rights, those who are focused on human rights in Asia and in China, do not subscribe to that estimate.    Either way, I think that this resolution can be improved. And it is factually true that Ethan Gutmann does put out this estimate. But when you cite the estimate in a ``whereas'' clause in a resolution, you are not only making a statement of fact; you are citing it and giving it credibility. And I think that at a maximum, we should delete this. As a minimum, we should qualify it by indicating that others who are very concerned with human rights in China don't embrace this. Again, that would be something for the full committee and not the subcommittee.    And I will yield to the chairman.</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much.    And I rise in support of these three pieces of legislation. First and foremost, let us remember that Mongolia, the people there have been courageous in their implementation of an entirely new economic system at a time when they are in a relatively isolated area of the world. There was great hardship there in Mongolia while they were transitioning out of the Soviet economy. And it is much to the credit of the people of Mongolia that they were able to stick it out, and they actually have maintained a Democratic government and were able to move forward and now I think are exemplary in the way they have conducted their own society, again, starting way behind the curve 25 years ago.    Next is Singapore, and let us note this about Singapore, Singapore, too, also started with much of a handicap. If you take a look at Singapore the people of Singapore had less land, fewer resources, and more people than China, and so you have what appears to be a country with a lot of liabilities and not many assets. But they have turned that country--in a 50-year period, Singapore has become exemplary to the world of a society that works.    And it was my honor to meet President Lee in Singapore, the first President Lee. I haven't met his son yet, but President Lee was a dramatic leader who made that country work, as I say, with few resources, lots of people. Unlike China, they never, for example, went to a one-child policy, yet they established a country in which, because of the prosperity level of their people, you had basically a stable population without having to have the draconian and antifreedom policies that we saw in China, which the Chinese have just recently backed off on.    Lastly, about our friends in the Falun Gong and China, talking about China, the Falun Gong, while I agree with Brad, with my good friend, Mr. Sherman, that, yes, maybe there isn't an exact reading on this, you can't get an exact reading from a dictatorship, from a group of gangsters. You cannot get an exact reading on how many people they have murdered in order to sell their body parts.    Yeah, the only way we could express it is ``may,'' but we can say, for the record--and I put it on the record now--there have been many investigations into this, especially by parliamentarians from Canada, who I have spoken to personally, who went into China, documented how many prisoners, Falun Gong prisoners, were taken to certain prisons and how many didn't come out. And the fact that those very same prisons were the prisons in which body parts were being sold to people from the West and other places. So although, yeah, you can't say, ``No, there may be body parts being sold there,'' because they are not going to show you this, but when you have a dictatorship, this is just about as proven as it gets.    The Falun Gong, by the way, are people who have no violent threat to anybody. Falun Gong are people who believe in meditation and yoga and are peaceful people. The fact that the Chinese Communist leadership still feels compelled to murder the Falun Gong to try to destroy it as an option for the Chinese people speaks a lot about the nature of the Chinese regime today. It is an evil regime that continues to put people in jail, murder them, and sell their body parts because they are part of a pacifist organization.    So all of this I think we should make sure we heed in these three pieces of legislation.    Thank you, Mr. Chairman, for your leadership.</t>
   </si>
   <si>
@@ -110,9 +101,6 @@
   </si>
   <si>
     <t>400071</t>
-  </si>
-  <si>
-    <t>Steve Chabot</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chabot. Yes, it is very brief, Mr. Chairman. I want to thank you, and I want to commend you and the ranking member for bringing all three of these bills before the committee today.    And I will speak just briefly on H. Res. 343, a bill that expresses concern, as my colleague indicated, in regards to China's state-sanctioned harvesting of organs from prisoners, particularly members of the Falun Gong and other religious and ethnic minorities. And I know I have met with many Falun Gong practitioners from my district in past years who have brought me all kinds of horrific stories about what they either experienced themselves in China or others that they know of or relatives that are still there. And it is unbelievable that this happens in the 21st century.    I brought similar legislation before this committee when I was chair, and I am pleased to see that the subcommittee is raising awareness of the issue by bringing this matter before the subcommittee again. China's organ harvesting, it is deplorable, and it is sad to me to think, again, that in 2016 this heinous practice is still occurring. China continues to deny that organs are taken from prisoners without consent, but there is still no independent verification of a state-sponsored organ transplant system. And it is our duty as the leader of the free world to continue to call on China to end this disgraceful barbarism.    And I yield back.</t>
@@ -517,11 +505,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -543,11 +529,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -567,13 +551,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -595,11 +577,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -619,13 +599,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -647,11 +625,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -671,13 +647,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -699,11 +673,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -723,13 +695,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -751,11 +721,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -775,13 +743,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -803,11 +769,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -827,13 +791,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -855,11 +817,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -879,13 +839,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -907,11 +865,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98311.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98311.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon. The subcommittee will come to order. We meet today pursuant to notice to mark up three bipartisan measures. As your offices have been notified, it is the intent of the Chair to consider en bloc the following items, which were previously provided to members and are in your folders: First, House Resolution 339, expressing the sense of the House of Representatives regarding the 25th anniversary of democracy in Mongolia; the Salmon amendment 104 in the nature of a substitute to H. Res. 339; and the Salmon second degree amendment 105 to amendment 104.    We also have House Resolution 343, expressing concern regarding persistent and credible reports of systematic state-sanctioned organ harvesting from non-consenting prisoners of conscience in the People's Republic of China, including from large numbers of Falun Gong practitioners and members of other religious and ethnic minority groups. With that, we will be voting on the Connolly amendment No. 66 in the nature of a substitute to H. Res. 343.    And, finally, House Resolution 374, recognizing the 50th anniversary of the Singaporean independence and reaffirming Singapore's close partnership with the United States. And, with that, Salmon amendment 103 in the nature of a substitute to H. Res. 374.    And, without objection, these items are considered as read and will be considered en bloc.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you, Mr. Chairman. Thank you for the bipartisan approach you are taking.    There are two, I think, noncontroversial--completely noncontroversial--bills. The first deals with Mongolia. I will, of course, support the bill and your amendment to it as well. Democracy has been thriving in Mongolia for 25 years. This bill recognizes the 25th anniversary of that democracy, and recommends the U.S. Government expand academic, cultural, and other people-to-people partnerships between Mongolia and the United States. It advocates and urges Mongolia to further develop democratic institutions, promote transparency, accountability, and community engagement. This is a country with a truly amazing history, and I join you in supporting the bill.    The other noncontroversial bill deals with Singapore. I commend Mr. Heck for being here and for offering this resolution. Singapore was established in its independence 50 years ago. The country's history began in a unique way, being expelled from Malaysia in August 1965. After that separation, the fledgling nation had to become self-sufficient and faced problems, including mass unemployment, housing shortages, lack of land, and a lack of virtually all natural resources. Not only does this resolution commemorate the 50th anniversary of Singapore's independence, but it highlights the strong bilateral cooperation between the United States and Singapore.    And I might add that Singapore is one of the very few countries in Asia where we have a trade surplus, and I look forward to looking at that trade relationship and seeing if we can replicate it with others in Asia.    Turning to the third resolution dealing with the Falun Gong, China's human rights record is abysmal. Its treatment of religion and those who wish to practice religion is abysmal. It appears that Beijing simply fears anything it does not control. If they were providing open government in which all could participate, they would have far less to fear. We should specifically condemn China's treatment of Falun Gong members, who have faced perhaps more discrimination and more retribution and more mistreatment than any other religion in China; though, there are many others that could argue that they, too, are subject to that abuse.    But there are parts of this resolution that do give me pause. In particular, the second full ``whereas'' clause on page 3 of the amendment in the nature of a substitute, which says: ``Whereas researcher and journalist Ethan Gutmann estimates that approximately 65,000 Falun Gong adherents''--and this is a strange phrase--``may have been''--and then it goes on to say--``killed for their organs from 2000 to 2008.'' I can't find anyone in the human rights community, any of the established human rights organizations, to lend their credibility to this as even a reasonable estimate.    It also gives me pause to say that a researcher determines that a certain number may have been killed. The chairman points out that he believes that people's organs were harvested when they were alive. This clause talks about them being killed. I think this resolution would be preferable if it simply deleted this ``whereas'' clause, or--and I may offer this as an amendment in the full committee; I will not offer an amendment here--if we said: Okay, it is indeed true that Ethan Gutmann has this estimate, but others concerned with human rights, those who are focused on human rights in Asia and in China, do not subscribe to that estimate.    Either way, I think that this resolution can be improved. And it is factually true that Ethan Gutmann does put out this estimate. But when you cite the estimate in a ``whereas'' clause in a resolution, you are not only making a statement of fact; you are citing it and giving it credibility. And I think that at a maximum, we should delete this. As a minimum, we should qualify it by indicating that others who are very concerned with human rights in China don't embrace this. Again, that would be something for the full committee and not the subcommittee.    And I will yield to the chairman.</t>
   </si>
   <si>
@@ -94,6 +109,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much.    And I rise in support of these three pieces of legislation. First and foremost, let us remember that Mongolia, the people there have been courageous in their implementation of an entirely new economic system at a time when they are in a relatively isolated area of the world. There was great hardship there in Mongolia while they were transitioning out of the Soviet economy. And it is much to the credit of the people of Mongolia that they were able to stick it out, and they actually have maintained a Democratic government and were able to move forward and now I think are exemplary in the way they have conducted their own society, again, starting way behind the curve 25 years ago.    Next is Singapore, and let us note this about Singapore, Singapore, too, also started with much of a handicap. If you take a look at Singapore the people of Singapore had less land, fewer resources, and more people than China, and so you have what appears to be a country with a lot of liabilities and not many assets. But they have turned that country--in a 50-year period, Singapore has become exemplary to the world of a society that works.    And it was my honor to meet President Lee in Singapore, the first President Lee. I haven't met his son yet, but President Lee was a dramatic leader who made that country work, as I say, with few resources, lots of people. Unlike China, they never, for example, went to a one-child policy, yet they established a country in which, because of the prosperity level of their people, you had basically a stable population without having to have the draconian and antifreedom policies that we saw in China, which the Chinese have just recently backed off on.    Lastly, about our friends in the Falun Gong and China, talking about China, the Falun Gong, while I agree with Brad, with my good friend, Mr. Sherman, that, yes, maybe there isn't an exact reading on this, you can't get an exact reading from a dictatorship, from a group of gangsters. You cannot get an exact reading on how many people they have murdered in order to sell their body parts.    Yeah, the only way we could express it is ``may,'' but we can say, for the record--and I put it on the record now--there have been many investigations into this, especially by parliamentarians from Canada, who I have spoken to personally, who went into China, documented how many prisoners, Falun Gong prisoners, were taken to certain prisons and how many didn't come out. And the fact that those very same prisons were the prisons in which body parts were being sold to people from the West and other places. So although, yeah, you can't say, ``No, there may be body parts being sold there,'' because they are not going to show you this, but when you have a dictatorship, this is just about as proven as it gets.    The Falun Gong, by the way, are people who have no violent threat to anybody. Falun Gong are people who believe in meditation and yoga and are peaceful people. The fact that the Chinese Communist leadership still feels compelled to murder the Falun Gong to try to destroy it as an option for the Chinese people speaks a lot about the nature of the Chinese regime today. It is an evil regime that continues to put people in jail, murder them, and sell their body parts because they are part of a pacifist organization.    So all of this I think we should make sure we heed in these three pieces of legislation.    Thank you, Mr. Chairman, for your leadership.</t>
   </si>
   <si>
@@ -101,6 +122,12 @@
   </si>
   <si>
     <t>400071</t>
+  </si>
+  <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chabot. Yes, it is very brief, Mr. Chairman. I want to thank you, and I want to commend you and the ranking member for bringing all three of these bills before the committee today.    And I will speak just briefly on H. Res. 343, a bill that expresses concern, as my colleague indicated, in regards to China's state-sanctioned harvesting of organs from prisoners, particularly members of the Falun Gong and other religious and ethnic minorities. And I know I have met with many Falun Gong practitioners from my district in past years who have brought me all kinds of horrific stories about what they either experienced themselves in China or others that they know of or relatives that are still there. And it is unbelievable that this happens in the 21st century.    I brought similar legislation before this committee when I was chair, and I am pleased to see that the subcommittee is raising awareness of the issue by bringing this matter before the subcommittee again. China's organ harvesting, it is deplorable, and it is sad to me to think, again, that in 2016 this heinous practice is still occurring. China continues to deny that organs are taken from prisoners without consent, but there is still no independent verification of a state-sponsored organ transplant system. And it is our duty as the leader of the free world to continue to call on China to end this disgraceful barbarism.    And I yield back.</t>
@@ -455,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +490,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,389 +512,472 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
       <c r="H8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
         <v>14</v>
       </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
         <v>14</v>
       </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98311.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98311.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Salmon</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Sherman</t>
   </si>
   <si>
@@ -107,6 +116,9 @@
   </si>
   <si>
     <t>400343</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Rohrabacher</t>
@@ -482,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +502,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,469 +527,520 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
